--- a/product-definitions/spreadsheet/surface-met.xlsx
+++ b/product-definitions/spreadsheet/surface-met.xlsx
@@ -12,20 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -149,6 +149,24 @@
     <t>Rainfall Rate</t>
   </si>
   <si>
+    <t>hail_intensity</t>
+  </si>
+  <si>
+    <t>hits cm-2</t>
+  </si>
+  <si>
+    <t>Hail Intensity</t>
+  </si>
+  <si>
+    <t>hail_rate</t>
+  </si>
+  <si>
+    <t>hits cm-2 hr-1</t>
+  </si>
+  <si>
+    <t>Hail Rate</t>
+  </si>
+  <si>
     <t>downwelling_longwave_flux_in_air</t>
   </si>
   <si>
@@ -162,6 +180,18 @@
   </si>
   <si>
     <t>Downwelling Shortwave Radiation</t>
+  </si>
+  <si>
+    <t>downwelling_total_irradiance</t>
+  </si>
+  <si>
+    <t>Downwelling Total Radiative Flux</t>
+  </si>
+  <si>
+    <t>net_total_irradiance</t>
+  </si>
+  <si>
+    <t>Net Downwelling Radiative Flux</t>
   </si>
   <si>
     <t>qc_flag_temperature</t>
@@ -272,12 +302,24 @@
 bad_data_accumulated_rain_outside_sensor_operational_range
 suspect_data_time_stamp_error</t>
   </si>
+  <si>
+    <t>qc_flag_downwelling_total_irradiance</t>
+  </si>
+  <si>
+    <t>Data Quality Flag: Downwelling Total Irradiance</t>
+  </si>
+  <si>
+    <t>qc_flag_net_total_irradiance</t>
+  </si>
+  <si>
+    <t>Data Quality Flag: Net Total Irradiance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -301,13 +343,23 @@
     <font>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -319,17 +371,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -342,11 +394,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -394,34 +452,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1"/>
     <row r="3" ht="12.0" customHeight="1"/>
@@ -1447,13 +1505,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -1467,7 +1525,7 @@
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1489,7 +1547,7 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1499,7 +1557,7 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1575,7 +1633,7 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1661,7 +1719,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -1747,7 +1805,7 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
@@ -1833,7 +1891,7 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
@@ -1919,7 +1977,7 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>39</v>
@@ -2005,7 +2063,7 @@
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
         <v>43</v>
@@ -2069,7 +2127,7 @@
     </row>
     <row r="85" ht="12.0" customHeight="1"/>
     <row r="86" ht="12.0" customHeight="1">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2091,9 +2149,9 @@
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2101,7 +2159,7 @@
       <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2155,7 +2213,7 @@
     </row>
     <row r="97" ht="12.0" customHeight="1"/>
     <row r="98" ht="12.0" customHeight="1">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2177,17 +2235,17 @@
     </row>
     <row r="101" ht="12.0" customHeight="1">
       <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="102" ht="12.0" customHeight="1">
       <c r="B102" t="s">
         <v>15</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2196,8 +2254,9 @@
         <v>16</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E103" s="9"/>
     </row>
     <row r="104" ht="12.0" customHeight="1">
       <c r="B104" t="s">
@@ -2242,7 +2301,7 @@
     <row r="109" ht="12.0" customHeight="1"/>
     <row r="110" ht="12.0" customHeight="1">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" ht="12.0" customHeight="1">
@@ -2250,7 +2309,7 @@
         <v>10</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" ht="12.0" customHeight="1">
@@ -2263,226 +2322,246 @@
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="8">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="114" ht="12.0" customHeight="1">
       <c r="B114" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="8"/>
+      <c r="C114" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="115" ht="12.0" customHeight="1">
       <c r="B115" t="s">
         <v>16</v>
       </c>
-      <c r="C115" t="s">
-        <v>52</v>
+      <c r="C115" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="116" ht="12.0" customHeight="1">
-      <c r="B116" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>54</v>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="117" ht="12.0" customHeight="1">
-      <c r="B117" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" ht="12.0" customHeight="1"/>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="12.0" customHeight="1">
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="119" ht="12.0" customHeight="1">
-      <c r="A119" t="s">
-        <v>57</v>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="120" ht="12.0" customHeight="1">
       <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="121" ht="12.0" customHeight="1">
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" ht="12.0" customHeight="1"/>
     <row r="122" ht="12.0" customHeight="1">
-      <c r="B122" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" s="8">
-        <v>1.0</v>
+      <c r="A122" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
       <c r="B123" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
       <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" ht="12.0" customHeight="1">
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" ht="12.0" customHeight="1">
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" ht="12.0" customHeight="1">
+      <c r="B127" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" ht="12.0" customHeight="1">
-      <c r="B125" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" ht="12.0" customHeight="1">
-      <c r="B126" s="11" t="s">
+      <c r="C127" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" ht="12.0" customHeight="1"/>
+    </row>
     <row r="128" ht="12.0" customHeight="1">
-      <c r="A128" t="s">
-        <v>61</v>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="129" ht="12.0" customHeight="1">
       <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="12.0" customHeight="1">
       <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="12.0" customHeight="1">
       <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="8">
-        <v>1.0</v>
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="132" ht="12.0" customHeight="1">
       <c r="B132" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="133" ht="12.0" customHeight="1">
-      <c r="B133" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" t="s">
-        <v>62</v>
-      </c>
+      <c r="A133" s="5"/>
     </row>
     <row r="134" ht="12.0" customHeight="1">
-      <c r="B134" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>59</v>
+      <c r="A134" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="135" ht="12.0" customHeight="1">
-      <c r="B135" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" ht="12.0" customHeight="1"/>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" ht="12.0" customHeight="1">
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="137" ht="12.0" customHeight="1">
-      <c r="A137" s="5" t="s">
-        <v>64</v>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="138" ht="12.0" customHeight="1">
       <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="139" ht="12.0" customHeight="1">
       <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
       <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="8">
-        <v>1.0</v>
+        <v>18</v>
+      </c>
+      <c r="C140" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="141" ht="12.0" customHeight="1">
       <c r="B141" t="s">
-        <v>15</v>
-      </c>
-      <c r="C141" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="142" ht="12.0" customHeight="1">
       <c r="B142" t="s">
-        <v>16</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="143" ht="12.0" customHeight="1">
-      <c r="B143" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>66</v>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="144" ht="12.0" customHeight="1">
-      <c r="B144" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>67</v>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="145" ht="12.0" customHeight="1"/>
     <row r="146" ht="12.0" customHeight="1">
       <c r="A146" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" ht="12.0" customHeight="1">
@@ -2490,7 +2569,7 @@
         <v>10</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" ht="12.0" customHeight="1">
@@ -2503,228 +2582,608 @@
     </row>
     <row r="149" ht="12.0" customHeight="1">
       <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="8">
-        <v>1.0</v>
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="150" ht="12.0" customHeight="1">
       <c r="B150" t="s">
         <v>15</v>
       </c>
-      <c r="C150" s="8"/>
+      <c r="E150" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="151" ht="12.0" customHeight="1">
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" ht="12.0" customHeight="1">
-      <c r="B152" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>70</v>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="6">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="153" ht="12.0" customHeight="1">
-      <c r="B153" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="154" ht="12.0" customHeight="1"/>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" ht="12.0" customHeight="1">
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="155" ht="12.0" customHeight="1">
-      <c r="A155" t="s">
-        <v>72</v>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="156" ht="12.0" customHeight="1">
       <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="157" ht="12.0" customHeight="1">
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" ht="12.0" customHeight="1"/>
     <row r="158" ht="12.0" customHeight="1">
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="8">
-        <v>1.0</v>
+      <c r="A158" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="159" ht="12.0" customHeight="1">
       <c r="B159" t="s">
-        <v>15</v>
-      </c>
-      <c r="C159" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="160" ht="12.0" customHeight="1">
       <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" ht="12.0" customHeight="1">
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="162" ht="12.0" customHeight="1">
+      <c r="B162" t="s">
+        <v>15</v>
+      </c>
+      <c r="C162" s="11"/>
+    </row>
+    <row r="163" ht="12.0" customHeight="1">
+      <c r="B163" t="s">
         <v>16</v>
       </c>
-      <c r="C160" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="161" ht="12.0" customHeight="1">
-      <c r="B161" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C161" s="10" t="s">
+      <c r="C163" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" ht="12.0" customHeight="1">
+      <c r="B164" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" ht="12.0" customHeight="1">
+      <c r="B165" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="162" ht="12.0" customHeight="1">
-      <c r="B162" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="163" ht="12.0" customHeight="1"/>
-    <row r="164" ht="12.0" customHeight="1">
-      <c r="A164" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" ht="12.0" customHeight="1">
-      <c r="B165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="166" ht="12.0" customHeight="1">
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="166" ht="12.0" customHeight="1"/>
     <row r="167" ht="12.0" customHeight="1">
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="8">
-        <v>1.0</v>
+      <c r="A167" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="168" ht="12.0" customHeight="1">
       <c r="B168" t="s">
-        <v>15</v>
-      </c>
-      <c r="C168" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="169" ht="12.0" customHeight="1">
       <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" ht="12.0" customHeight="1">
+      <c r="B170" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="171" ht="12.0" customHeight="1">
+      <c r="B171" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="11"/>
+    </row>
+    <row r="172" ht="12.0" customHeight="1">
+      <c r="B172" t="s">
         <v>16</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C172" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" ht="12.0" customHeight="1">
+      <c r="B173" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" ht="12.0" customHeight="1">
+      <c r="B174" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" ht="12.0" customHeight="1"/>
+    <row r="176" ht="12.0" customHeight="1">
+      <c r="A176" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" ht="12.0" customHeight="1">
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" ht="12.0" customHeight="1">
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" ht="12.0" customHeight="1">
+      <c r="B179" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="180" ht="12.0" customHeight="1">
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" s="11"/>
+    </row>
+    <row r="181" ht="12.0" customHeight="1">
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="182" ht="12.0" customHeight="1">
+      <c r="B182" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" ht="12.0" customHeight="1">
+      <c r="B183" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" ht="12.0" customHeight="1"/>
+    <row r="185" ht="12.0" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="186" ht="12.0" customHeight="1">
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" ht="12.0" customHeight="1">
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" ht="12.0" customHeight="1">
+      <c r="B188" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="189" ht="12.0" customHeight="1">
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" ht="12.0" customHeight="1">
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="191" ht="12.0" customHeight="1">
+      <c r="B191" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="170" ht="12.0" customHeight="1">
-      <c r="B170" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" ht="12.0" customHeight="1">
-      <c r="B171" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C171" s="12" t="s">
+    <row r="192" ht="12.0" customHeight="1">
+      <c r="B192" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C192" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="172" ht="12.0" customHeight="1"/>
-    <row r="173" ht="12.0" customHeight="1"/>
-    <row r="174" ht="12.0" customHeight="1"/>
-    <row r="175" ht="12.0" customHeight="1"/>
-    <row r="176" ht="12.0" customHeight="1"/>
-    <row r="177" ht="12.0" customHeight="1"/>
-    <row r="178" ht="12.0" customHeight="1"/>
-    <row r="179" ht="12.0" customHeight="1"/>
-    <row r="180" ht="12.0" customHeight="1"/>
-    <row r="181" ht="12.0" customHeight="1"/>
-    <row r="182" ht="12.0" customHeight="1"/>
-    <row r="183" ht="12.0" customHeight="1"/>
-    <row r="184" ht="12.0" customHeight="1"/>
-    <row r="185" ht="12.0" customHeight="1"/>
-    <row r="186" ht="12.0" customHeight="1"/>
-    <row r="187" ht="12.0" customHeight="1"/>
-    <row r="188" ht="12.0" customHeight="1"/>
-    <row r="189" ht="12.0" customHeight="1"/>
-    <row r="190" ht="12.0" customHeight="1"/>
-    <row r="191" ht="12.0" customHeight="1"/>
-    <row r="192" ht="12.0" customHeight="1"/>
     <row r="193" ht="12.0" customHeight="1"/>
-    <row r="194" ht="12.0" customHeight="1"/>
-    <row r="195" ht="12.0" customHeight="1"/>
-    <row r="196" ht="12.0" customHeight="1"/>
-    <row r="197" ht="12.0" customHeight="1"/>
-    <row r="198" ht="12.0" customHeight="1"/>
-    <row r="199" ht="12.0" customHeight="1"/>
-    <row r="200" ht="12.0" customHeight="1"/>
-    <row r="201" ht="12.0" customHeight="1"/>
+    <row r="194" ht="12.0" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" ht="12.0" customHeight="1">
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" ht="12.0" customHeight="1">
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" ht="12.0" customHeight="1">
+      <c r="B197" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="198" ht="12.0" customHeight="1">
+      <c r="B198" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="11"/>
+    </row>
+    <row r="199" ht="12.0" customHeight="1">
+      <c r="B199" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="200" ht="12.0" customHeight="1">
+      <c r="B200" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" ht="12.0" customHeight="1">
+      <c r="B201" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="202" ht="12.0" customHeight="1"/>
-    <row r="203" ht="12.0" customHeight="1"/>
-    <row r="204" ht="12.0" customHeight="1"/>
-    <row r="205" ht="12.0" customHeight="1"/>
-    <row r="206" ht="12.0" customHeight="1"/>
-    <row r="207" ht="12.0" customHeight="1"/>
-    <row r="208" ht="12.0" customHeight="1"/>
-    <row r="209" ht="12.0" customHeight="1"/>
-    <row r="210" ht="12.0" customHeight="1"/>
+    <row r="203" ht="12.0" customHeight="1">
+      <c r="A203" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="204" ht="12.0" customHeight="1">
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" ht="12.0" customHeight="1">
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" ht="12.0" customHeight="1">
+      <c r="B206" t="s">
+        <v>2</v>
+      </c>
+      <c r="C206" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="207" ht="12.0" customHeight="1">
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="11"/>
+    </row>
+    <row r="208" ht="12.0" customHeight="1">
+      <c r="B208" t="s">
+        <v>16</v>
+      </c>
+      <c r="C208" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" ht="12.0" customHeight="1">
+      <c r="B209" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="210" ht="12.0" customHeight="1">
+      <c r="B210" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="211" ht="12.0" customHeight="1"/>
-    <row r="212" ht="12.0" customHeight="1"/>
-    <row r="213" ht="12.0" customHeight="1"/>
-    <row r="214" ht="12.0" customHeight="1"/>
-    <row r="215" ht="12.0" customHeight="1"/>
-    <row r="216" ht="12.0" customHeight="1"/>
-    <row r="217" ht="12.0" customHeight="1"/>
-    <row r="218" ht="12.0" customHeight="1"/>
-    <row r="219" ht="12.0" customHeight="1"/>
+    <row r="212" ht="15.0" customHeight="1">
+      <c r="A212" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" ht="12.0" customHeight="1">
+      <c r="B213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" ht="12.0" customHeight="1">
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" ht="12.0" customHeight="1">
+      <c r="B215" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="216" ht="12.0" customHeight="1">
+      <c r="B216" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="11"/>
+    </row>
+    <row r="217" ht="12.0" customHeight="1">
+      <c r="B217" t="s">
+        <v>16</v>
+      </c>
+      <c r="C217" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" ht="12.0" customHeight="1">
+      <c r="B218" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219" ht="12.0" customHeight="1">
+      <c r="B219" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="220" ht="12.0" customHeight="1"/>
-    <row r="221" ht="12.0" customHeight="1"/>
-    <row r="222" ht="12.0" customHeight="1"/>
-    <row r="223" ht="12.0" customHeight="1"/>
-    <row r="224" ht="12.0" customHeight="1"/>
-    <row r="225" ht="12.0" customHeight="1"/>
-    <row r="226" ht="12.0" customHeight="1"/>
-    <row r="227" ht="12.0" customHeight="1"/>
-    <row r="228" ht="12.0" customHeight="1"/>
+    <row r="221" ht="12.0" customHeight="1">
+      <c r="A221" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" ht="12.0" customHeight="1">
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="223" ht="12.0" customHeight="1">
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" ht="12.0" customHeight="1">
+      <c r="B224" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="225" ht="12.0" customHeight="1">
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225" s="11"/>
+    </row>
+    <row r="226" ht="12.0" customHeight="1">
+      <c r="B226" t="s">
+        <v>16</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="227" ht="12.0" customHeight="1">
+      <c r="B227" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="228" ht="12.0" customHeight="1">
+      <c r="B228" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="229" ht="12.0" customHeight="1"/>
-    <row r="230" ht="12.0" customHeight="1"/>
-    <row r="231" ht="12.0" customHeight="1"/>
-    <row r="232" ht="12.0" customHeight="1"/>
-    <row r="233" ht="12.0" customHeight="1"/>
-    <row r="234" ht="12.0" customHeight="1"/>
-    <row r="235" ht="12.0" customHeight="1"/>
-    <row r="236" ht="12.0" customHeight="1"/>
-    <row r="237" ht="12.0" customHeight="1"/>
+    <row r="230" ht="12.0" customHeight="1">
+      <c r="A230" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" ht="12.0" customHeight="1">
+      <c r="B231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="232" ht="12.0" customHeight="1">
+      <c r="B232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" ht="12.0" customHeight="1">
+      <c r="B233" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="234" ht="12.0" customHeight="1">
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234" s="11"/>
+    </row>
+    <row r="235" ht="12.0" customHeight="1">
+      <c r="B235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" ht="12.0" customHeight="1">
+      <c r="B236" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" ht="12.0" customHeight="1">
+      <c r="B237" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="238" ht="12.0" customHeight="1"/>
     <row r="239" ht="12.0" customHeight="1"/>
     <row r="240" ht="12.0" customHeight="1"/>
@@ -3482,6 +3941,54 @@
     <row r="992" ht="12.0" customHeight="1"/>
     <row r="993" ht="12.0" customHeight="1"/>
     <row r="994" ht="12.0" customHeight="1"/>
+    <row r="995" ht="12.0" customHeight="1"/>
+    <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
+    <row r="998" ht="12.0" customHeight="1"/>
+    <row r="999" ht="12.0" customHeight="1"/>
+    <row r="1000" ht="12.0" customHeight="1"/>
+    <row r="1001" ht="12.0" customHeight="1"/>
+    <row r="1002" ht="12.0" customHeight="1"/>
+    <row r="1003" ht="12.0" customHeight="1"/>
+    <row r="1004" ht="12.0" customHeight="1"/>
+    <row r="1005" ht="12.0" customHeight="1"/>
+    <row r="1006" ht="12.0" customHeight="1"/>
+    <row r="1007" ht="12.0" customHeight="1"/>
+    <row r="1008" ht="12.0" customHeight="1"/>
+    <row r="1009" ht="12.0" customHeight="1"/>
+    <row r="1010" ht="12.0" customHeight="1"/>
+    <row r="1011" ht="12.0" customHeight="1"/>
+    <row r="1012" ht="12.0" customHeight="1"/>
+    <row r="1013" ht="12.0" customHeight="1"/>
+    <row r="1014" ht="12.0" customHeight="1"/>
+    <row r="1015" ht="12.0" customHeight="1"/>
+    <row r="1016" ht="12.0" customHeight="1"/>
+    <row r="1017" ht="12.0" customHeight="1"/>
+    <row r="1018" ht="12.0" customHeight="1"/>
+    <row r="1019" ht="12.0" customHeight="1"/>
+    <row r="1020" ht="12.0" customHeight="1"/>
+    <row r="1021" ht="12.0" customHeight="1"/>
+    <row r="1022" ht="12.0" customHeight="1"/>
+    <row r="1023" ht="12.0" customHeight="1"/>
+    <row r="1024" ht="12.0" customHeight="1"/>
+    <row r="1025" ht="12.0" customHeight="1"/>
+    <row r="1026" ht="12.0" customHeight="1"/>
+    <row r="1027" ht="12.0" customHeight="1"/>
+    <row r="1028" ht="12.0" customHeight="1"/>
+    <row r="1029" ht="12.0" customHeight="1"/>
+    <row r="1030" ht="12.0" customHeight="1"/>
+    <row r="1031" ht="12.0" customHeight="1"/>
+    <row r="1032" ht="12.0" customHeight="1"/>
+    <row r="1033" ht="12.0" customHeight="1"/>
+    <row r="1034" ht="12.0" customHeight="1"/>
+    <row r="1035" ht="12.0" customHeight="1"/>
+    <row r="1036" ht="12.0" customHeight="1"/>
+    <row r="1037" ht="12.0" customHeight="1"/>
+    <row r="1038" ht="12.0" customHeight="1"/>
+    <row r="1039" ht="12.0" customHeight="1"/>
+    <row r="1040" ht="12.0" customHeight="1"/>
+    <row r="1041" ht="12.0" customHeight="1"/>
+    <row r="1042" ht="12.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
